--- a/results/pvalue_OFFSIDES_all_transporter_AUPR.xlsx
+++ b/results/pvalue_OFFSIDES_all_transporter_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.008</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.051</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.148</t>
+          <t>4.531</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.403</t>
+          <t>4.994</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.063</t>
+          <t>5.792</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.246</t>
+          <t>2.765</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>27.005</t>
+          <t>26.375</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
